--- a/src/Book1.xlsx
+++ b/src/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>RollNo</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>43525326532</t>
+  </si>
+  <si>
+    <t>3456543299</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1287,12 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
